--- a/SysCall-BackEnd/Documentações/Instancias - SysCall.xlsx
+++ b/SysCall-BackEnd/Documentações/Instancias - SysCall.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsilva\Desktop\Syscall\SysCall-BackEnd\Documentações\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\Desktop\SysCall\SysCall-BackEnd\Documentações\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7309D7-A73A-4904-BAD1-802826CFEB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -324,8 +323,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +507,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,12 +523,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -865,38 +864,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D36:K95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D36:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C28" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="10" t="s">
+    <row r="36" spans="4:17">
+      <c r="D36" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="P36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17">
       <c r="D37" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,8 +927,14 @@
       <c r="K37" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P37" s="2">
+        <v>11985666336</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17">
       <c r="D38" s="4">
         <v>1</v>
       </c>
@@ -935,10 +947,10 @@
       <c r="G38" s="2">
         <v>11985666336</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="10" t="s">
         <v>70</v>
       </c>
       <c r="J38" s="2" t="s">
@@ -947,8 +959,14 @@
       <c r="K38" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P38" s="2">
+        <v>11912345678</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17">
       <c r="D39" s="4">
         <v>2</v>
       </c>
@@ -961,10 +979,10 @@
       <c r="G39" s="2">
         <v>11912345678</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="10" t="s">
         <v>70</v>
       </c>
       <c r="J39" s="2" t="s">
@@ -973,8 +991,14 @@
       <c r="K39" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P39" s="2">
+        <v>12345678901</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17">
       <c r="D40" s="4">
         <v>3</v>
       </c>
@@ -987,11 +1011,11 @@
       <c r="G40" s="2">
         <v>12345678901</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I40" s="14" t="s">
-        <v>65</v>
+      <c r="I40" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>7</v>
@@ -999,8 +1023,14 @@
       <c r="K40" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P40" s="2">
+        <v>13945678901</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17">
       <c r="D41" s="4">
         <v>4</v>
       </c>
@@ -1013,10 +1043,10 @@
       <c r="G41" s="2">
         <v>13945678901</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="10" t="s">
         <v>70</v>
       </c>
       <c r="J41" s="2" t="s">
@@ -1025,8 +1055,14 @@
       <c r="K41" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P41" s="2">
+        <v>14945678901</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17">
       <c r="D42" s="4">
         <v>5</v>
       </c>
@@ -1039,10 +1075,10 @@
       <c r="G42" s="2">
         <v>14945678901</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="10" t="s">
         <v>70</v>
       </c>
       <c r="J42" s="2" t="s">
@@ -1051,8 +1087,14 @@
       <c r="K42" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P42" s="2">
+        <v>15987654321</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17">
       <c r="D43" s="4">
         <v>6</v>
       </c>
@@ -1065,11 +1107,11 @@
       <c r="G43" s="2">
         <v>15987654321</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="14" t="s">
-        <v>68</v>
+      <c r="I43" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>7</v>
@@ -1077,8 +1119,14 @@
       <c r="K43" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P43" s="2">
+        <v>16976980123</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17">
       <c r="D44" s="4">
         <v>7</v>
       </c>
@@ -1091,10 +1139,10 @@
       <c r="G44" s="2">
         <v>16976980123</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="10" t="s">
         <v>70</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -1103,8 +1151,14 @@
       <c r="K44" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P44" s="2">
+        <v>17912345678</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17">
       <c r="D45" s="4">
         <v>8</v>
       </c>
@@ -1117,10 +1171,10 @@
       <c r="G45" s="2">
         <v>17912345678</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="10" t="s">
         <v>70</v>
       </c>
       <c r="J45" s="2" t="s">
@@ -1129,8 +1183,14 @@
       <c r="K45" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P45" s="2">
+        <v>18989456321</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17">
       <c r="D46" s="4">
         <v>9</v>
       </c>
@@ -1143,10 +1203,10 @@
       <c r="G46" s="2">
         <v>18989456321</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="10" t="s">
         <v>70</v>
       </c>
       <c r="J46" s="2" t="s">
@@ -1155,8 +1215,14 @@
       <c r="K46" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P46" s="2">
+        <v>21934567890</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="4:17">
       <c r="D47" s="4">
         <v>10</v>
       </c>
@@ -1169,10 +1235,10 @@
       <c r="G47" s="2">
         <v>21934567890</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="10" t="s">
         <v>68</v>
       </c>
       <c r="J47" s="2" t="s">
@@ -1181,8 +1247,14 @@
       <c r="K47" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P47" s="2">
+        <v>22945678901</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="4:17">
       <c r="D48" s="4">
         <v>11</v>
       </c>
@@ -1195,10 +1267,10 @@
       <c r="G48" s="2">
         <v>22945678901</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="10" t="s">
         <v>68</v>
       </c>
       <c r="J48" s="2" t="s">
@@ -1207,8 +1279,14 @@
       <c r="K48" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P48" s="2">
+        <v>23945678901</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="4:17">
       <c r="D49" s="4">
         <v>12</v>
       </c>
@@ -1221,10 +1299,10 @@
       <c r="G49" s="2">
         <v>23945678901</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="10" t="s">
         <v>68</v>
       </c>
       <c r="J49" s="2" t="s">
@@ -1233,8 +1311,14 @@
       <c r="K49" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P49" s="2">
+        <v>44934512345</v>
+      </c>
+      <c r="Q49" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="4:17">
       <c r="D50" s="4">
         <v>24</v>
       </c>
@@ -1247,10 +1331,10 @@
       <c r="G50" s="2">
         <v>44934512345</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="10" t="s">
         <v>67</v>
       </c>
       <c r="J50" s="2" t="s">
@@ -1259,8 +1343,14 @@
       <c r="K50" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P50" s="2">
+        <v>45934512345</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="4:17">
       <c r="D51" s="4">
         <v>25</v>
       </c>
@@ -1273,10 +1363,10 @@
       <c r="G51" s="2">
         <v>45934512345</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I51" s="10" t="s">
         <v>67</v>
       </c>
       <c r="J51" s="2" t="s">
@@ -1285,8 +1375,14 @@
       <c r="K51" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P51" s="2">
+        <v>61934512345</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="4:17">
       <c r="D52" s="4">
         <v>29</v>
       </c>
@@ -1299,10 +1395,10 @@
       <c r="G52" s="2">
         <v>61934512345</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I52" s="14" t="s">
+      <c r="I52" s="10" t="s">
         <v>64</v>
       </c>
       <c r="J52" s="2" t="s">
@@ -1311,8 +1407,14 @@
       <c r="K52" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P52" s="2">
+        <v>83912345678</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="4:17">
       <c r="D53" s="4">
         <v>33</v>
       </c>
@@ -1325,10 +1427,10 @@
       <c r="G53" s="2">
         <v>83912345678</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I53" s="14" t="s">
+      <c r="I53" s="10" t="s">
         <v>66</v>
       </c>
       <c r="J53" s="2" t="s">
@@ -1337,8 +1439,14 @@
       <c r="K53" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P53" s="2">
+        <v>99987654321</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="4:17">
       <c r="D54" s="4">
         <v>49</v>
       </c>
@@ -1351,10 +1459,10 @@
       <c r="G54" s="2">
         <v>99987654321</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I54" s="14" t="s">
+      <c r="I54" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J54" s="2" t="s">
@@ -1363,8 +1471,14 @@
       <c r="K54" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="P54" s="2">
+        <v>98934561234</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="4:17">
       <c r="D55" s="4">
         <v>60</v>
       </c>
@@ -1377,10 +1491,10 @@
       <c r="G55" s="2">
         <v>98934561234</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I55" s="10" t="s">
         <v>63</v>
       </c>
       <c r="J55" s="2" t="s">
@@ -1390,16 +1504,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D59" s="10" t="s">
+    <row r="59" spans="4:17">
+      <c r="D59" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="4:17">
       <c r="D60" s="7" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1530,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:17">
       <c r="D61" s="5">
         <v>1</v>
       </c>
@@ -1433,7 +1547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:17">
       <c r="D62" s="5">
         <v>2</v>
       </c>
@@ -1450,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:17">
       <c r="D63" s="5">
         <v>3</v>
       </c>
@@ -1467,7 +1581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:17">
       <c r="D64" s="5">
         <v>4</v>
       </c>
@@ -1484,7 +1598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:9">
       <c r="D65" s="5">
         <v>5</v>
       </c>
@@ -1501,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:9">
       <c r="D66" s="5">
         <v>6</v>
       </c>
@@ -1518,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:9">
       <c r="D67" s="5">
         <v>7</v>
       </c>
@@ -1535,7 +1649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:9">
       <c r="D68" s="5">
         <v>8</v>
       </c>
@@ -1552,7 +1666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:9">
       <c r="D69" s="5">
         <v>9</v>
       </c>
@@ -1569,7 +1683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:9">
       <c r="D70" s="5">
         <v>10</v>
       </c>
@@ -1586,7 +1700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:9">
       <c r="D71" s="5">
         <v>11</v>
       </c>
@@ -1603,7 +1717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:9">
       <c r="D72" s="5">
         <v>12</v>
       </c>
@@ -1620,7 +1734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:9">
       <c r="D73" s="5">
         <v>13</v>
       </c>
@@ -1637,7 +1751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:9">
       <c r="D74" s="5">
         <v>14</v>
       </c>
@@ -1654,7 +1768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:9">
       <c r="D75" s="5">
         <v>15</v>
       </c>
@@ -1671,17 +1785,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D79" s="11" t="s">
+    <row r="79" spans="4:9">
+      <c r="D79" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="13"/>
-    </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="15"/>
+    </row>
+    <row r="80" spans="4:9">
       <c r="D80" s="9" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +1815,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:9">
       <c r="D81" s="6">
         <v>1</v>
       </c>
@@ -1721,7 +1835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:9">
       <c r="D82" s="6">
         <v>2</v>
       </c>
@@ -1741,7 +1855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:9">
       <c r="D83" s="6">
         <v>3</v>
       </c>
@@ -1761,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:9">
       <c r="D84" s="6">
         <v>4</v>
       </c>
@@ -1781,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:9">
       <c r="D85" s="6">
         <v>5</v>
       </c>
@@ -1801,7 +1915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:9">
       <c r="D86" s="6">
         <v>6</v>
       </c>
@@ -1821,7 +1935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:9">
       <c r="D87" s="6">
         <v>7</v>
       </c>
@@ -1841,7 +1955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:9">
       <c r="D88" s="6">
         <v>8</v>
       </c>
@@ -1861,7 +1975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:9">
       <c r="D89" s="6">
         <v>9</v>
       </c>
@@ -1881,7 +1995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:9">
       <c r="D90" s="6">
         <v>10</v>
       </c>
@@ -1901,7 +2015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:9">
       <c r="D91" s="6">
         <v>11</v>
       </c>
@@ -1921,7 +2035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:9">
       <c r="D92" s="6">
         <v>12</v>
       </c>
@@ -1941,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:9">
       <c r="D93" s="6">
         <v>13</v>
       </c>
@@ -1961,7 +2075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:9">
       <c r="D94" s="6">
         <v>14</v>
       </c>
@@ -1981,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:9">
       <c r="D95" s="6">
         <v>15</v>
       </c>
@@ -2008,22 +2122,22 @@
     <mergeCell ref="D79:I79"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H48" r:id="rId1" xr:uid="{0A44B00F-5180-4AFB-8A54-FE261090AA91}"/>
-    <hyperlink ref="H41" r:id="rId2" xr:uid="{00DF46F6-A058-4FD8-BD2E-17062CD9FAFE}"/>
-    <hyperlink ref="H49" r:id="rId3" xr:uid="{F4EA23E5-F1F1-4466-A094-AB89CD437926}"/>
-    <hyperlink ref="H42" r:id="rId4" xr:uid="{D59B0B3B-C179-446F-BB59-65EB1E7A9F85}"/>
-    <hyperlink ref="H43" r:id="rId5" xr:uid="{A677FC11-1760-40BE-B8EA-5E7E2405A8EB}"/>
-    <hyperlink ref="H44" r:id="rId6" xr:uid="{80000FF3-8D80-4E62-A2E7-41B0778791E6}"/>
-    <hyperlink ref="H45" r:id="rId7" xr:uid="{CFA8F2D9-2923-4172-ABE9-E58104031311}"/>
-    <hyperlink ref="H46" r:id="rId8" xr:uid="{FBBA2ACB-B26C-4B98-A2FE-5F6A3618A8E3}"/>
-    <hyperlink ref="H47" r:id="rId9" xr:uid="{FA874877-F0D8-4026-BEE4-F811C039170E}"/>
-    <hyperlink ref="H50" r:id="rId10" xr:uid="{42479156-5654-45A2-BE23-1EB627B3BB82}"/>
-    <hyperlink ref="H51" r:id="rId11" xr:uid="{4C4739D3-6D00-4F48-8430-90DB60F26214}"/>
-    <hyperlink ref="H52" r:id="rId12" xr:uid="{87A5CC86-1E12-4F72-B51B-C05BB5856740}"/>
-    <hyperlink ref="H53" r:id="rId13" xr:uid="{9C699EA1-CAA0-4010-AC32-4A7350E44BBF}"/>
-    <hyperlink ref="H54" r:id="rId14" xr:uid="{F891ED05-6287-45EB-8DD9-2E4876D24E33}"/>
-    <hyperlink ref="H55" r:id="rId15" xr:uid="{6BA29D78-A0A2-41C3-8E3C-E1C0AB8C7E31}"/>
-    <hyperlink ref="H38" r:id="rId16" xr:uid="{6A730228-F95C-4EC0-9B4D-5FF0517893D0}"/>
+    <hyperlink ref="H48" r:id="rId1"/>
+    <hyperlink ref="H41" r:id="rId2"/>
+    <hyperlink ref="H49" r:id="rId3"/>
+    <hyperlink ref="H42" r:id="rId4"/>
+    <hyperlink ref="H43" r:id="rId5"/>
+    <hyperlink ref="H44" r:id="rId6"/>
+    <hyperlink ref="H45" r:id="rId7"/>
+    <hyperlink ref="H46" r:id="rId8"/>
+    <hyperlink ref="H47" r:id="rId9"/>
+    <hyperlink ref="H50" r:id="rId10"/>
+    <hyperlink ref="H51" r:id="rId11"/>
+    <hyperlink ref="H52" r:id="rId12"/>
+    <hyperlink ref="H53" r:id="rId13"/>
+    <hyperlink ref="H54" r:id="rId14"/>
+    <hyperlink ref="H55" r:id="rId15"/>
+    <hyperlink ref="H38" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
@@ -2031,6 +2145,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BDF39B024F04A14486BA613BEA42AFF1" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48c91588e4c96d3b87372e2739b705e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87289aac-3191-415d-94b6-004c2ae78a31" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0362d00d4c3829c3077b766beca3d16d" ns3:_="">
     <xsd:import namespace="87289aac-3191-415d-94b6-004c2ae78a31"/>
@@ -2174,22 +2303,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F0B7D04-965F-41C4-A0F3-50622BBCC1F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C0FA18E-0926-46C2-B252-4A5E541FB5A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="87289aac-3191-415d-94b6-004c2ae78a31"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08BD35B0-6B5A-4F12-A5F2-C8065F0E1696}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2205,28 +2343,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C0FA18E-0926-46C2-B252-4A5E541FB5A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="87289aac-3191-415d-94b6-004c2ae78a31"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F0B7D04-965F-41C4-A0F3-50622BBCC1F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>